--- a/biology/Zoologie/Gros-bec_casse-noyaux/Gros-bec_casse-noyaux.xlsx
+++ b/biology/Zoologie/Gros-bec_casse-noyaux/Gros-bec_casse-noyaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coccothraustes coccothraustes
 Le Gros-bec casse-noyaux (Coccothraustes coccothraustes) est une petite espèce de passereaux de la famille des Fringillidae. Il est partiellement migrateur. C'est l'espèce la plus grande des Fringillidae et la seule du genre Coccothraustes. Il est apparenté à certains gros-becs, actuellement classés dans des genres différents.
@@ -512,11 +524,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Coccothraustes coccothraustes a été décrite par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Loxia coccothraustes[1].
-Synonymie
-Loxia coccothraustes Linné, 1758 Protonyme</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Coccothraustes coccothraustes a été décrite par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Loxia coccothraustes.
+</t>
         </is>
       </c>
     </row>
@@ -541,10 +554,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Loxia coccothraustes Linné, 1758 Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 12.2, 2022) du Congrès ornithologique international (ordre phylogénique) :
 Coccothraustes coccothraustes buvryi Cabanis, 1862 — nord-ouest de l'Afrique ;
@@ -556,42 +607,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Gros-bec_casse-noyaux</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gros-bec_casse-noyaux</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gros-bec est gros et corpulent, mesure environ 17 à 18 cm et se distingue par son énorme bec triangulaire noir bleuté au printemps et jaunâtre à l'automne, son cou épais et présente une queue assez courte ; sa silhouette penche toujours vers l'avant. Ses yeux sont rosés ; ses pattes passent du sombre en hiver au rose clair en été. Il paraît légèrement disproportionné à cause de son cou très volumineux.
-Aspect de l'adulte
-Le mâle adulte a la tête rousse et le cou noir, la nuque grise et le dos brun. Ses ailes larges sont bleu noir, traversées par une grande bande blanc roussâtre que l'on retrouve sous le ventre. Sa queue courte est brune avec le bout blanc. Son ventre est d'un brun rose très pâle et son bas-ventre blanc. La femelle ressemble beaucoup au mâle excepté que sa tête est moins rousse et que ses secondaires sont grises.
-(Attention, vu de loin, confusion possible avec le jaseur boréal.)
-Aspect du juvénile
-Le gros-bec juvénile a la tête brun jaune peu marquée, la poitrine et les flancs tachetés et la barre alaire séparée en deux.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -613,12 +628,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Chant</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il chante assez peu fréquemment et son chant est très hésitant et très peu sonore souvent un « tik-tik-tour-oui-ouit ». Au contraire ses cris sont sonores et explosifs, assez typiques, des « tsik » ou des « ptik...ptikit » et son appel un « tsrîîh » fin. Lorsqu'il est inquiété il lance un « kioûû » craintif.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gros-bec est gros et corpulent, mesure environ 17 à 18 cm et se distingue par son énorme bec triangulaire noir bleuté au printemps et jaunâtre à l'automne, son cou épais et présente une queue assez courte ; sa silhouette penche toujours vers l'avant. Ses yeux sont rosés ; ses pattes passent du sombre en hiver au rose clair en été. Il paraît légèrement disproportionné à cause de son cou très volumineux.
 </t>
         </is>
       </c>
@@ -644,10 +661,120 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aspect de l'adulte</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle adulte a la tête rousse et le cou noir, la nuque grise et le dos brun. Ses ailes larges sont bleu noir, traversées par une grande bande blanc roussâtre que l'on retrouve sous le ventre. Sa queue courte est brune avec le bout blanc. Son ventre est d'un brun rose très pâle et son bas-ventre blanc. La femelle ressemble beaucoup au mâle excepté que sa tête est moins rousse et que ses secondaires sont grises.
+(Attention, vu de loin, confusion possible avec le jaseur boréal.)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Aspect du juvénile</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gros-bec juvénile a la tête brun jaune peu marquée, la poitrine et les flancs tachetés et la barre alaire séparée en deux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Chant</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il chante assez peu fréquemment et son chant est très hésitant et très peu sonore souvent un « tik-tik-tour-oui-ouit ». Au contraire ses cris sont sonores et explosifs, assez typiques, des « tsik » ou des « ptik...ptikit » et son appel un « tsrîîh » fin. Lorsqu'il est inquiété il lance un « kioûû » craintif.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gros-bec est très farouche, méfiant et assez erratique, il ne se laisse pas approcher facilement, et il s'enfuit pour se percher en haut des arbres et ne redescend que très craintivement de branche en branche.
 Son vol est puissant et onduleux, et sa démarche sautillante est tanguée.
@@ -657,99 +784,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Gros-bec_casse-noyaux</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gros-bec_casse-noyaux</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Longévité</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gros-bec peut vivre environ 10 ans.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Gros-bec_casse-noyaux</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gros-bec_casse-noyaux</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau se rencontre surtout dans les forêts de feuillus et de conifères qui comportent différentes espèces, mais il vit aussi dans les parcs, les vergers et les boqueteaux.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Gros-bec_casse-noyaux</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gros-bec_casse-noyaux</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Gros-bec est présent en Europe, Asie (sauf l'Asie du Sud-Est), Maghreb. Il s'égare aussi dans l'ouest de l'Alaska et des îles Aléoutiennes.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
@@ -771,80 +805,223 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Longévité</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gros-bec peut vivre environ 10 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se rencontre surtout dans les forêts de feuillus et de conifères qui comportent différentes espèces, mais il vit aussi dans les parcs, les vergers et les boqueteaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Gros-bec est présent en Europe, Asie (sauf l'Asie du Sud-Est), Maghreb. Il s'égare aussi dans l'ouest de l'Alaska et des îles Aléoutiennes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nidification
-Il est arboricole et préfère les charmes, les hêtres et les érables pour établir son nid. Les gros-becs se regroupent souvent en colonies pour nicher, et chaque couple défend un petit morceau de territoire.
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nidification</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est arboricole et préfère les charmes, les hêtres et les érables pour établir son nid. Les gros-becs se regroupent souvent en colonies pour nicher, et chaque couple défend un petit morceau de territoire.
 Son nid, dont le site est choisi par le mâle et les fondations construites aussi par lui, est situé à au moins 3 m du sol. Il est en forme de coupe et la femelle y apporte des radicelles, du poil et du crin.
 Dès le nid achevé, la femelle y dépose 4 à 7 œufs d'environ 2 cm de longueur dont la teinte va du gris-bleu au vert pâle mais la couleur et les motifs (taches, stries...) de la coquille sont assez variables.
 Le gros-bec produit normalement une couvée par an, exceptionnellement deux.
-Élevage des oisillons
-L'incubation des œufs dure une dizaine de jours. C'est la femelle qui couve tandis que le mâle la ravitaille au nid.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Élevage des oisillons</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'incubation des œufs dure une dizaine de jours. C'est la femelle qui couve tandis que le mâle la ravitaille au nid.
 À l'éclosion, les poussins sont recouverts d'un long duvet blanc très épais. Les parents les nourrissent d'insectes, mais principalement de chenilles. Les parents peuvent en porter une douzaine à la fois.
 Au bout d'une douzaine de jours, parfois moins, les jeunes quittent le nid mais restent à proximité et sont nourris par les adultes encore pendant 15 jours.
 </t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Gros-bec_casse-noyaux</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gros-bec_casse-noyaux</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gros-bec se nourrit principalement de noyaux et de graines qu'il décortique avec son bec très puissant grâce à la musculature impressionnante de ses mâchoires, car il faut une pression énorme pour casser un noyau[2]. Mais au printemps lorsque les graines viennent à manquer, il change de régime alimentaire, devenant insectivore et se nourrit volontiers de chenilles et de cerfs-volants qu'il attrape au vol.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Gros-bec_casse-noyaux</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gros-bec_casse-noyaux</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gros-bec se nourrit principalement de noyaux et de graines qu'il décortique avec son bec très puissant grâce à la musculature impressionnante de ses mâchoires, car il faut une pression énorme pour casser un noyau. Mais au printemps lorsque les graines viennent à manquer, il change de régime alimentaire, devenant insectivore et se nourrit volontiers de chenilles et de cerfs-volants qu'il attrape au vol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gros-bec_casse-noyaux</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gros-bec n'est pas facile à recenser vu qu'il est très farouche et donc difficile à observer. Il semble néanmoins que les populations aient diminué ces dernières années.
 </t>
